--- a/Foundation/egovframework.rte.fdl.excel/testdata/testModifyCellAttribute.xlsx
+++ b/Foundation/egovframework.rte.fdl.excel/testdata/testModifyCellAttribute.xlsx
@@ -1551,10 +1551,10 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right" wrapText="true"/>
     </xf>
@@ -1566,7 +1566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData/>
@@ -1576,7 +1576,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
